--- a/api/python/TaiGer_Transcript-Program_Comparer/database/ElectricalEngineering/EE_Course_database.xlsx
+++ b/api/python/TaiGer_Transcript-Program_Comparer/database/ElectricalEngineering/EE_Course_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c520cbcd5c1ba828/20110706/TaiGer_Transcript-Program_Comparer/database/ElectricalEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56983250-4BB1-44A9-B083-C3D2056982D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{39EBAA6C-7D22-4639-BA82-A5604AE6E650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9365E0B6-2E0F-438B-A26E-CDF67E555CAA}"/>
   <bookViews>
-    <workbookView xWindow="21825" yWindow="-16350" windowWidth="29040" windowHeight="15840" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
+    <workbookView xWindow="21825" yWindow="-16350" windowWidth="29040" windowHeight="15720" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
   <sheets>
     <sheet name="All_EE_Courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>再生能源導論</t>
   </si>
@@ -84,18 +84,12 @@
     <t>光電子學(一)</t>
   </si>
   <si>
-    <t>資料探勘導論</t>
-  </si>
-  <si>
     <t>進階微波被動電路設計與分析</t>
   </si>
   <si>
     <t>半導體元件物理</t>
   </si>
   <si>
-    <t>深度學習屏下指紋辨識專論</t>
-  </si>
-  <si>
     <t>光電元件物理</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>軟體工程</t>
   </si>
   <si>
-    <t>平行運算</t>
-  </si>
-  <si>
     <t>高頻電路</t>
   </si>
   <si>
@@ -310,6 +301,324 @@
   </si>
   <si>
     <t>超大型積體電路</t>
+  </si>
+  <si>
+    <t>Calculus (1)</t>
+  </si>
+  <si>
+    <t>Calculus (2)</t>
+  </si>
+  <si>
+    <t>Linear algebra</t>
+  </si>
+  <si>
+    <t>Differential equation</t>
+  </si>
+  <si>
+    <t>discrete mathematics</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Numerical Analysis</t>
+  </si>
+  <si>
+    <t>Complex function</t>
+  </si>
+  <si>
+    <t>Modern physics</t>
+  </si>
+  <si>
+    <t>Introduction to Computer</t>
+  </si>
+  <si>
+    <t>Computer organization</t>
+  </si>
+  <si>
+    <t>Computer structure</t>
+  </si>
+  <si>
+    <t>Software engineering</t>
+  </si>
+  <si>
+    <t>Embedded programming</t>
+  </si>
+  <si>
+    <t>Data structure</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Object-oriented programming</t>
+  </si>
+  <si>
+    <t>Automatic control (1)</t>
+  </si>
+  <si>
+    <t>Smart control</t>
+  </si>
+  <si>
+    <t>Control System</t>
+  </si>
+  <si>
+    <t>Non-linear control system</t>
+  </si>
+  <si>
+    <t>Electronic Experiment (1)</t>
+  </si>
+  <si>
+    <t>Electronic Experiment (2)</t>
+  </si>
+  <si>
+    <t>Electronics (1)</t>
+  </si>
+  <si>
+    <t>Electronics (2)</t>
+  </si>
+  <si>
+    <t>Electronics (3)</t>
+  </si>
+  <si>
+    <t>Optoelectronics (1)</t>
+  </si>
+  <si>
+    <t>Digital logic</t>
+  </si>
+  <si>
+    <t>Integrated circuit process technology</t>
+  </si>
+  <si>
+    <t>Integrated circuit design</t>
+  </si>
+  <si>
+    <t>Analog integrated circuit design</t>
+  </si>
+  <si>
+    <t>Digital integrated circuit design</t>
+  </si>
+  <si>
+    <t>Advanced microwave passive circuit design and analysis</t>
+  </si>
+  <si>
+    <t>Signal and system</t>
+  </si>
+  <si>
+    <t>Electromagnetism (1)</t>
+  </si>
+  <si>
+    <t>Electromagnetism (2)</t>
+  </si>
+  <si>
+    <t>High frequency circuit</t>
+  </si>
+  <si>
+    <t>Power system planning and operation</t>
+  </si>
+  <si>
+    <t>Semiconductor laser</t>
+  </si>
+  <si>
+    <t>Semiconductor packaging and trend development</t>
+  </si>
+  <si>
+    <t>Component design and model establishment</t>
+  </si>
+  <si>
+    <t>Semiconductor component physics</t>
+  </si>
+  <si>
+    <t>Optoelectronics Physics</t>
+  </si>
+  <si>
+    <t>Communication principle (1)</t>
+  </si>
+  <si>
+    <t>Communication Principle (2)</t>
+  </si>
+  <si>
+    <t>Digital communication</t>
+  </si>
+  <si>
+    <t>Message theory</t>
+  </si>
+  <si>
+    <t>Antenna principle and design</t>
+  </si>
+  <si>
+    <t>Introduction to Renewable Energy</t>
+  </si>
+  <si>
+    <t>Introduction to Power Engineering</t>
+  </si>
+  <si>
+    <t>Introduction to Wireless Networks</t>
+  </si>
+  <si>
+    <t>Computer vision</t>
+  </si>
+  <si>
+    <t>Image processing</t>
+  </si>
+  <si>
+    <t>Internet of Things Technology</t>
+  </si>
+  <si>
+    <t>Cryptography and experiment</t>
+  </si>
+  <si>
+    <t>Green Energy Technology and System</t>
+  </si>
+  <si>
+    <t>Vector analysis</t>
+  </si>
+  <si>
+    <t>Photoelectric sensing technology and application</t>
+  </si>
+  <si>
+    <t>Applied Quantum Mechanics (1)</t>
+  </si>
+  <si>
+    <t>Advanced Renewable Energy Implementation Topic</t>
+  </si>
+  <si>
+    <t>Introduction to Medical Engineering</t>
+  </si>
+  <si>
+    <t>Introduction to Microwave Engineering</t>
+  </si>
+  <si>
+    <t>statics</t>
+  </si>
+  <si>
+    <t>dynamics</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Fluid mechanics</t>
+  </si>
+  <si>
+    <t>Heat transfer</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Communication network</t>
+  </si>
+  <si>
+    <t>Power Electronics</t>
+  </si>
+  <si>
+    <t>Power Systems</t>
+  </si>
+  <si>
+    <t>Bioimaging</t>
+  </si>
+  <si>
+    <t>Electronic components and materials</t>
+  </si>
+  <si>
+    <t>acoustics</t>
+  </si>
+  <si>
+    <t>Data transfer</t>
+  </si>
+  <si>
+    <t>Compiler principle</t>
+  </si>
+  <si>
+    <t>Microsystem manufacturing</t>
+  </si>
+  <si>
+    <t>High frequency system engineering</t>
+  </si>
+  <si>
+    <t>Electric motor</t>
+  </si>
+  <si>
+    <t>Power Electronics Experiment</t>
+  </si>
+  <si>
+    <t>所有科目_英語</t>
+  </si>
+  <si>
+    <t>Electrical Circuits (1)</t>
+  </si>
+  <si>
+    <t>Electrical Circuits (2)</t>
+  </si>
+  <si>
+    <t>Automatic control (2)</t>
+  </si>
+  <si>
+    <t>Operating system</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Physics (1)</t>
+  </si>
+  <si>
+    <t>Physics (2)</t>
+  </si>
+  <si>
+    <t>Physics Experiment (1)</t>
+  </si>
+  <si>
+    <t>Physics Experiment (2)</t>
+  </si>
+  <si>
+    <t>Semiconductor manufacture and measurement</t>
+  </si>
+  <si>
+    <t>Very large Scale integrated circuit (VLSI)</t>
+  </si>
+  <si>
+    <t>行動通訊</t>
+  </si>
+  <si>
+    <t>mobile communication</t>
+  </si>
+  <si>
+    <t>射頻工程導論</t>
+  </si>
+  <si>
+    <t>Introduction to Radio Frequency</t>
+  </si>
+  <si>
+    <t>電磁波</t>
+  </si>
+  <si>
+    <t>Electromagnetic Wave</t>
+  </si>
+  <si>
+    <t>通道編碼</t>
+  </si>
+  <si>
+    <t>Channel Coding</t>
+  </si>
+  <si>
+    <t>天線理論</t>
+  </si>
+  <si>
+    <t>Antenna Theory</t>
+  </si>
+  <si>
+    <t>Programming C++</t>
+  </si>
+  <si>
+    <t>C++程式設計</t>
+  </si>
+  <si>
+    <t>電子材料</t>
+  </si>
+  <si>
+    <t>Electrical Materials</t>
   </si>
 </sst>
 </file>
@@ -362,7 +671,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,10 +679,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Linux Libertine G"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +740,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -750,23 +1058,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C323114-BC5F-49C1-9F53-9EA9AB7CC060}">
-  <dimension ref="A1:W420"/>
+  <dimension ref="A1:W421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="22.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.09765625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -791,7 +1102,9 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -814,9 +1127,11 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -839,9 +1154,11 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -864,9 +1181,11 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -889,9 +1208,11 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -914,9 +1235,11 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="5"/>
@@ -938,9 +1261,11 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="5"/>
@@ -962,9 +1287,11 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="H9" s="5"/>
@@ -988,7 +1315,9 @@
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
@@ -1010,9 +1339,11 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="H11" s="5"/>
@@ -1036,7 +1367,9 @@
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" s="5"/>
@@ -1058,9 +1391,11 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="H13" s="5"/>
@@ -1082,9 +1417,11 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="H14" s="5"/>
@@ -1106,9 +1443,11 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="H15" s="5"/>
@@ -1129,10 +1468,12 @@
       <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="A16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="H16" s="5"/>
@@ -1153,10 +1494,12 @@
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="H17" s="5"/>
@@ -1178,9 +1521,11 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="H18" s="5"/>
@@ -1202,9 +1547,11 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="H19" s="5"/>
@@ -1226,9 +1573,11 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="H20" s="5"/>
@@ -1250,9 +1599,11 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="H21" s="5"/>
@@ -1274,9 +1625,11 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="H22" s="5"/>
@@ -1293,14 +1646,16 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="H23" s="5"/>
@@ -1322,9 +1677,11 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="H24" s="5"/>
@@ -1341,14 +1698,16 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="H25" s="5"/>
@@ -1370,9 +1729,11 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="H26" s="5"/>
@@ -1394,9 +1755,11 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="H27" s="5"/>
@@ -1420,7 +1783,9 @@
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="H28" s="5"/>
@@ -1442,9 +1807,11 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="H29" s="5"/>
@@ -1465,10 +1832,12 @@
       <c r="W29" s="7"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="5"/>
+      <c r="A30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="5"/>
@@ -1489,10 +1858,12 @@
       <c r="W30" s="7"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="5"/>
+      <c r="A31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5"/>
@@ -1514,9 +1885,11 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="H32" s="5"/>
@@ -1538,9 +1911,11 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="H33" s="5"/>
@@ -1562,9 +1937,11 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="H34" s="5"/>
@@ -1586,9 +1963,11 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="H35" s="5"/>
@@ -1610,9 +1989,11 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="H36" s="5"/>
@@ -1629,14 +2010,16 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="1"/>
+      <c r="V36" s="5"/>
       <c r="W36" s="7"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="H37" s="5"/>
@@ -1658,9 +2041,11 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="H38" s="5"/>
@@ -1677,14 +2062,16 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="V38" s="1"/>
       <c r="W38" s="7"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="H39" s="5"/>
@@ -1701,14 +2088,16 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="1"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="7"/>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="H40" s="5"/>
@@ -1730,9 +2119,11 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="H41" s="5"/>
@@ -1754,9 +2145,11 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="H42" s="5"/>
@@ -1778,9 +2171,11 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="H43" s="5"/>
@@ -1802,9 +2197,11 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="H44" s="5"/>
@@ -1826,9 +2223,11 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="H45" s="5"/>
@@ -1850,9 +2249,11 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="H46" s="5"/>
@@ -1874,9 +2275,11 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="H47" s="5"/>
@@ -1898,9 +2301,11 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="H48" s="5"/>
@@ -1922,9 +2327,11 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="H49" s="5"/>
@@ -1946,9 +2353,11 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="H50" s="5"/>
@@ -1972,7 +2381,9 @@
       <c r="A51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="H51" s="5"/>
@@ -1996,7 +2407,9 @@
       <c r="A52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="H52" s="5"/>
@@ -2020,7 +2433,9 @@
       <c r="A53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="H53" s="5"/>
@@ -2042,9 +2457,11 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="H54" s="5"/>
@@ -2066,9 +2483,11 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="H55" s="5"/>
@@ -2090,9 +2509,11 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="H56" s="5"/>
@@ -2114,9 +2535,11 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="H57" s="5"/>
@@ -2138,9 +2561,11 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="H58" s="5"/>
@@ -2164,7 +2589,9 @@
       <c r="A59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="H59" s="5"/>
@@ -2186,9 +2613,11 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="H60" s="5"/>
@@ -2212,7 +2641,9 @@
       <c r="A61" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="H61" s="5"/>
@@ -2234,9 +2665,11 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="H62" s="5"/>
@@ -2260,7 +2693,9 @@
       <c r="A63" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="5"/>
+      <c r="B63" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="H63" s="5"/>
@@ -2282,9 +2717,11 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="H64" s="5"/>
@@ -2306,9 +2743,11 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="H65" s="5"/>
@@ -2330,9 +2769,11 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="H66" s="5"/>
@@ -2354,9 +2795,11 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="H67" s="5"/>
@@ -2380,7 +2823,9 @@
       <c r="A68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="5"/>
+      <c r="B68" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="H68" s="5"/>
@@ -2404,7 +2849,9 @@
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="5"/>
+      <c r="B69" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="H69" s="5"/>
@@ -2428,7 +2875,9 @@
       <c r="A70" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="H70" s="5"/>
@@ -2450,9 +2899,11 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="H71" s="5"/>
@@ -2469,14 +2920,16 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
+      <c r="V71" s="1"/>
       <c r="W71" s="7"/>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="H72" s="5"/>
@@ -2498,9 +2951,11 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="H73" s="5"/>
@@ -2522,9 +2977,11 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="H74" s="5"/>
@@ -2541,14 +2998,16 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
-      <c r="V74" s="1"/>
+      <c r="V74" s="5"/>
       <c r="W74" s="7"/>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="5"/>
+      <c r="A75" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="H75" s="5"/>
@@ -2569,10 +3028,12 @@
       <c r="W75" s="7"/>
     </row>
     <row r="76" spans="1:23">
-      <c r="A76" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="5"/>
+      <c r="A76" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="H76" s="5"/>
@@ -2589,14 +3050,16 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
+      <c r="V76" s="1"/>
       <c r="W76" s="7"/>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="H77" s="5"/>
@@ -2617,10 +3080,12 @@
       <c r="W77" s="7"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="5"/>
+      <c r="A78" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="H78" s="5"/>
@@ -2641,10 +3106,12 @@
       <c r="W78" s="7"/>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="5"/>
+      <c r="A79" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="H79" s="5"/>
@@ -2665,10 +3132,12 @@
       <c r="W79" s="7"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="5"/>
+      <c r="A80" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="H80" s="5"/>
@@ -2685,14 +3154,16 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
-      <c r="V80" s="1"/>
+      <c r="V80" s="5"/>
       <c r="W80" s="7"/>
     </row>
     <row r="81" spans="1:23">
-      <c r="A81" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="5"/>
+      <c r="A81" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="H81" s="5"/>
@@ -2713,10 +3184,12 @@
       <c r="W81" s="7"/>
     </row>
     <row r="82" spans="1:23">
-      <c r="A82" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="5"/>
+      <c r="A82" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="H82" s="5"/>
@@ -2737,10 +3210,12 @@
       <c r="W82" s="7"/>
     </row>
     <row r="83" spans="1:23">
-      <c r="A83" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="5"/>
+      <c r="A83" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="H83" s="5"/>
@@ -2764,7 +3239,9 @@
       <c r="A84" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="5"/>
+      <c r="B84" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="H84" s="5"/>
@@ -2786,9 +3263,11 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="H85" s="5"/>
@@ -2810,9 +3289,11 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="H86" s="5"/>
@@ -2834,9 +3315,11 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="H87" s="5"/>
@@ -2858,9 +3341,11 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="H88" s="5"/>
@@ -2882,9 +3367,11 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="H89" s="5"/>
@@ -2906,9 +3393,11 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="H90" s="5"/>
@@ -2930,9 +3419,11 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="H91" s="5"/>
@@ -2954,10 +3445,11 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="H92" s="5"/>
@@ -2979,9 +3471,11 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B93" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3004,9 +3498,11 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B94" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3029,9 +3525,11 @@
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3053,7 +3551,12 @@
       <c r="W95" s="7"/>
     </row>
     <row r="96" spans="1:23">
-      <c r="B96" s="5"/>
+      <c r="A96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3075,7 +3578,12 @@
       <c r="W96" s="7"/>
     </row>
     <row r="97" spans="1:23">
-      <c r="B97" s="5"/>
+      <c r="A97" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3093,12 +3601,16 @@
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
-      <c r="V97" s="1"/>
+      <c r="V97" s="5"/>
       <c r="W97" s="7"/>
     </row>
     <row r="98" spans="1:23">
-      <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3120,8 +3632,12 @@
       <c r="W98" s="7"/>
     </row>
     <row r="99" spans="1:23">
-      <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3139,7 +3655,7 @@
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
+      <c r="V99" s="1"/>
       <c r="W99" s="7"/>
     </row>
     <row r="100" spans="1:23">
@@ -3277,7 +3793,7 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="1"/>
+      <c r="V105" s="5"/>
       <c r="W105" s="7"/>
     </row>
     <row r="106" spans="1:23">
@@ -3323,7 +3839,7 @@
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
+      <c r="V107" s="1"/>
       <c r="W107" s="7"/>
     </row>
     <row r="108" spans="1:23">
@@ -3396,6 +3912,7 @@
       <c r="W110" s="7"/>
     </row>
     <row r="111" spans="1:23">
+      <c r="A111" s="3"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3502,7 +4019,7 @@
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
-      <c r="V115" s="1"/>
+      <c r="V115" s="5"/>
       <c r="W115" s="7"/>
     </row>
     <row r="116" spans="1:23">
@@ -3682,7 +4199,6 @@
       <c r="W123" s="7"/>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="3"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3705,6 +4221,7 @@
       <c r="W124" s="7"/>
     </row>
     <row r="125" spans="1:23">
+      <c r="A125" s="3"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3723,7 +4240,7 @@
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
-      <c r="V125" s="5"/>
+      <c r="V125" s="1"/>
       <c r="W125" s="7"/>
     </row>
     <row r="126" spans="1:23">
@@ -3767,7 +4284,7 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
-      <c r="V127" s="1"/>
+      <c r="V127" s="5"/>
       <c r="W127" s="7"/>
     </row>
     <row r="128" spans="1:23">
@@ -3789,7 +4306,7 @@
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
+      <c r="V128" s="1"/>
       <c r="W128" s="7"/>
     </row>
     <row r="129" spans="1:23">
@@ -3833,11 +4350,10 @@
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
-      <c r="V130" s="1"/>
+      <c r="V130" s="5"/>
       <c r="W130" s="7"/>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="3"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3860,6 +4376,7 @@
       <c r="W131" s="7"/>
     </row>
     <row r="132" spans="1:23">
+      <c r="A132" s="3"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -3882,7 +4399,6 @@
       <c r="W132" s="7"/>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="3"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3905,6 +4421,7 @@
       <c r="W133" s="7"/>
     </row>
     <row r="134" spans="1:23">
+      <c r="A134" s="3"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4033,7 +4550,7 @@
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
-      <c r="V139" s="5"/>
+      <c r="V139" s="1"/>
       <c r="W139" s="7"/>
     </row>
     <row r="140" spans="1:23">
@@ -4077,7 +4594,7 @@
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
-      <c r="V141" s="1"/>
+      <c r="V141" s="5"/>
       <c r="W141" s="7"/>
     </row>
     <row r="142" spans="1:23">
@@ -4099,7 +4616,7 @@
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
+      <c r="V142" s="1"/>
       <c r="W142" s="7"/>
     </row>
     <row r="143" spans="1:23">
@@ -4165,7 +4682,7 @@
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
-      <c r="V145" s="1"/>
+      <c r="V145" s="5"/>
       <c r="W145" s="7"/>
     </row>
     <row r="146" spans="2:23">
@@ -4209,7 +4726,7 @@
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
+      <c r="V147" s="1"/>
       <c r="W147" s="7"/>
     </row>
     <row r="148" spans="2:23">
@@ -4561,7 +5078,7 @@
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
-      <c r="V163" s="1"/>
+      <c r="V163" s="5"/>
       <c r="W163" s="7"/>
     </row>
     <row r="164" spans="2:23">
@@ -4605,7 +5122,7 @@
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
-      <c r="V165" s="5"/>
+      <c r="V165" s="1"/>
       <c r="W165" s="7"/>
     </row>
     <row r="166" spans="2:23">
@@ -4649,7 +5166,7 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
-      <c r="V167" s="1"/>
+      <c r="V167" s="5"/>
       <c r="W167" s="7"/>
     </row>
     <row r="168" spans="2:23">
@@ -4693,7 +5210,7 @@
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
-      <c r="V169" s="5"/>
+      <c r="V169" s="1"/>
       <c r="W169" s="7"/>
     </row>
     <row r="170" spans="2:23">
@@ -5045,7 +5562,7 @@
       <c r="S185" s="5"/>
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
-      <c r="V185" s="1"/>
+      <c r="V185" s="5"/>
       <c r="W185" s="7"/>
     </row>
     <row r="186" spans="2:23">
@@ -5133,7 +5650,7 @@
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
-      <c r="V189" s="5"/>
+      <c r="V189" s="1"/>
       <c r="W189" s="7"/>
     </row>
     <row r="190" spans="2:23">
@@ -5221,7 +5738,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
-      <c r="V193" s="1"/>
+      <c r="V193" s="5"/>
       <c r="W193" s="7"/>
     </row>
     <row r="194" spans="2:23">
@@ -5265,7 +5782,7 @@
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
-      <c r="V195" s="5"/>
+      <c r="V195" s="1"/>
       <c r="W195" s="7"/>
     </row>
     <row r="196" spans="2:23">
@@ -5485,7 +6002,7 @@
       <c r="S205" s="5"/>
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
-      <c r="V205" s="1"/>
+      <c r="V205" s="5"/>
       <c r="W205" s="7"/>
     </row>
     <row r="206" spans="2:23">
@@ -5529,7 +6046,7 @@
       <c r="S207" s="5"/>
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
-      <c r="V207" s="5"/>
+      <c r="V207" s="1"/>
       <c r="W207" s="7"/>
     </row>
     <row r="208" spans="2:23">
@@ -5599,7 +6116,6 @@
       <c r="W210" s="7"/>
     </row>
     <row r="211" spans="1:23">
-      <c r="A211" s="3"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -5618,10 +6134,11 @@
       <c r="S211" s="5"/>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="1"/>
+      <c r="V211" s="5"/>
       <c r="W211" s="7"/>
     </row>
     <row r="212" spans="1:23">
+      <c r="A212" s="3"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -5644,7 +6161,6 @@
       <c r="W212" s="7"/>
     </row>
     <row r="213" spans="1:23">
-      <c r="A213" s="8"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -5663,11 +6179,11 @@
       <c r="S213" s="5"/>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
-      <c r="V213" s="5"/>
+      <c r="V213" s="1"/>
       <c r="W213" s="7"/>
     </row>
     <row r="214" spans="1:23">
-      <c r="A214" s="3"/>
+      <c r="A214" s="8"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -5713,6 +6229,7 @@
       <c r="W215" s="7"/>
     </row>
     <row r="216" spans="1:23">
+      <c r="A216" s="3"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -6197,7 +6714,6 @@
       <c r="W237" s="7"/>
     </row>
     <row r="238" spans="1:23">
-      <c r="A238" s="8"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -6220,6 +6736,7 @@
       <c r="W238" s="7"/>
     </row>
     <row r="239" spans="1:23">
+      <c r="A239" s="8"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -6238,11 +6755,10 @@
       <c r="S239" s="5"/>
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
-      <c r="V239" s="1"/>
+      <c r="V239" s="5"/>
       <c r="W239" s="7"/>
     </row>
     <row r="240" spans="1:23">
-      <c r="A240" s="8"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -6265,7 +6781,7 @@
       <c r="W240" s="7"/>
     </row>
     <row r="241" spans="1:23">
-      <c r="A241" s="3"/>
+      <c r="A241" s="8"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -6284,10 +6800,11 @@
       <c r="S241" s="5"/>
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
-      <c r="V241" s="5"/>
+      <c r="V241" s="1"/>
       <c r="W241" s="7"/>
     </row>
     <row r="242" spans="1:23">
+      <c r="A242" s="3"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -6328,7 +6845,7 @@
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="1"/>
+      <c r="V243" s="5"/>
       <c r="W243" s="7"/>
     </row>
     <row r="244" spans="1:23">
@@ -6350,11 +6867,10 @@
       <c r="S244" s="5"/>
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
-      <c r="V244" s="5"/>
+      <c r="V244" s="1"/>
       <c r="W244" s="7"/>
     </row>
     <row r="245" spans="1:23">
-      <c r="A245" s="8"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -6377,6 +6893,7 @@
       <c r="W245" s="7"/>
     </row>
     <row r="246" spans="1:23">
+      <c r="A246" s="8"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -6395,11 +6912,10 @@
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="1"/>
+      <c r="V246" s="5"/>
       <c r="W246" s="7"/>
     </row>
     <row r="247" spans="1:23">
-      <c r="A247" s="8"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -6422,6 +6938,7 @@
       <c r="W247" s="7"/>
     </row>
     <row r="248" spans="1:23">
+      <c r="A248" s="8"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -6484,7 +7001,7 @@
       <c r="S250" s="5"/>
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
+      <c r="V250" s="1"/>
       <c r="W250" s="7"/>
     </row>
     <row r="251" spans="1:23">
@@ -6572,7 +7089,7 @@
       <c r="S254" s="5"/>
       <c r="T254" s="5"/>
       <c r="U254" s="5"/>
-      <c r="V254" s="1"/>
+      <c r="V254" s="5"/>
       <c r="W254" s="7"/>
     </row>
     <row r="255" spans="1:23">
@@ -6616,7 +7133,7 @@
       <c r="S256" s="5"/>
       <c r="T256" s="5"/>
       <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
+      <c r="V256" s="1"/>
       <c r="W256" s="7"/>
     </row>
     <row r="257" spans="2:23">
@@ -7188,7 +7705,7 @@
       <c r="S282" s="5"/>
       <c r="T282" s="5"/>
       <c r="U282" s="5"/>
-      <c r="V282" s="1"/>
+      <c r="V282" s="5"/>
       <c r="W282" s="7"/>
     </row>
     <row r="283" spans="2:23">
@@ -7232,7 +7749,7 @@
       <c r="S284" s="5"/>
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
-      <c r="V284" s="5"/>
+      <c r="V284" s="1"/>
       <c r="W284" s="7"/>
     </row>
     <row r="285" spans="2:23">
@@ -7276,7 +7793,7 @@
       <c r="S286" s="5"/>
       <c r="T286" s="5"/>
       <c r="U286" s="5"/>
-      <c r="V286" s="1"/>
+      <c r="V286" s="5"/>
       <c r="W286" s="7"/>
     </row>
     <row r="287" spans="2:23">
@@ -7298,7 +7815,7 @@
       <c r="S287" s="5"/>
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
-      <c r="V287" s="5"/>
+      <c r="V287" s="1"/>
       <c r="W287" s="7"/>
     </row>
     <row r="288" spans="2:23">
@@ -7848,7 +8365,7 @@
       <c r="S312" s="5"/>
       <c r="T312" s="5"/>
       <c r="U312" s="5"/>
-      <c r="V312" s="1"/>
+      <c r="V312" s="5"/>
       <c r="W312" s="7"/>
     </row>
     <row r="313" spans="2:23">
@@ -7958,7 +8475,7 @@
       <c r="S317" s="5"/>
       <c r="T317" s="5"/>
       <c r="U317" s="5"/>
-      <c r="V317" s="5"/>
+      <c r="V317" s="1"/>
       <c r="W317" s="7"/>
     </row>
     <row r="318" spans="2:23">
@@ -8046,7 +8563,7 @@
       <c r="S321" s="5"/>
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
-      <c r="V321" s="1"/>
+      <c r="V321" s="5"/>
       <c r="W321" s="7"/>
     </row>
     <row r="322" spans="2:23">
@@ -8090,7 +8607,7 @@
       <c r="S323" s="5"/>
       <c r="T323" s="5"/>
       <c r="U323" s="5"/>
-      <c r="V323" s="5"/>
+      <c r="V323" s="1"/>
       <c r="W323" s="7"/>
     </row>
     <row r="324" spans="2:23">
@@ -8134,7 +8651,7 @@
       <c r="S325" s="5"/>
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
-      <c r="V325" s="1"/>
+      <c r="V325" s="5"/>
       <c r="W325" s="7"/>
     </row>
     <row r="326" spans="2:23">
@@ -8178,7 +8695,7 @@
       <c r="S327" s="5"/>
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
-      <c r="V327" s="5"/>
+      <c r="V327" s="1"/>
       <c r="W327" s="7"/>
     </row>
     <row r="328" spans="2:23">
@@ -8530,7 +9047,7 @@
       <c r="S343" s="5"/>
       <c r="T343" s="5"/>
       <c r="U343" s="5"/>
-      <c r="V343" s="1"/>
+      <c r="V343" s="5"/>
       <c r="W343" s="7"/>
     </row>
     <row r="344" spans="2:23">
@@ -8574,7 +9091,7 @@
       <c r="S345" s="5"/>
       <c r="T345" s="5"/>
       <c r="U345" s="5"/>
-      <c r="V345" s="5"/>
+      <c r="V345" s="1"/>
       <c r="W345" s="7"/>
     </row>
     <row r="346" spans="2:23">
@@ -8706,7 +9223,7 @@
       <c r="S351" s="5"/>
       <c r="T351" s="5"/>
       <c r="U351" s="5"/>
-      <c r="V351" s="1"/>
+      <c r="V351" s="5"/>
       <c r="W351" s="7"/>
     </row>
     <row r="352" spans="2:23">
@@ -8750,7 +9267,7 @@
       <c r="S353" s="5"/>
       <c r="T353" s="5"/>
       <c r="U353" s="5"/>
-      <c r="V353" s="5"/>
+      <c r="V353" s="1"/>
       <c r="W353" s="7"/>
     </row>
     <row r="354" spans="2:23">
@@ -8794,7 +9311,7 @@
       <c r="S355" s="5"/>
       <c r="T355" s="5"/>
       <c r="U355" s="5"/>
-      <c r="V355" s="1"/>
+      <c r="V355" s="5"/>
       <c r="W355" s="7"/>
     </row>
     <row r="356" spans="2:23">
@@ -8816,7 +9333,7 @@
       <c r="S356" s="5"/>
       <c r="T356" s="5"/>
       <c r="U356" s="5"/>
-      <c r="V356" s="5"/>
+      <c r="V356" s="1"/>
       <c r="W356" s="7"/>
     </row>
     <row r="357" spans="2:23">
@@ -9278,7 +9795,7 @@
       <c r="S377" s="5"/>
       <c r="T377" s="5"/>
       <c r="U377" s="5"/>
-      <c r="V377" s="1"/>
+      <c r="V377" s="5"/>
       <c r="W377" s="7"/>
     </row>
     <row r="378" spans="2:23">
@@ -9388,7 +9905,7 @@
       <c r="S382" s="5"/>
       <c r="T382" s="5"/>
       <c r="U382" s="5"/>
-      <c r="V382" s="5"/>
+      <c r="V382" s="1"/>
       <c r="W382" s="7"/>
     </row>
     <row r="383" spans="2:23">
@@ -9476,7 +9993,7 @@
       <c r="S386" s="5"/>
       <c r="T386" s="5"/>
       <c r="U386" s="5"/>
-      <c r="V386" s="1"/>
+      <c r="V386" s="5"/>
       <c r="W386" s="7"/>
     </row>
     <row r="387" spans="2:23">
@@ -9520,7 +10037,7 @@
       <c r="S388" s="5"/>
       <c r="T388" s="5"/>
       <c r="U388" s="5"/>
-      <c r="V388" s="5"/>
+      <c r="V388" s="1"/>
       <c r="W388" s="7"/>
     </row>
     <row r="389" spans="2:23">
@@ -9564,7 +10081,7 @@
       <c r="S390" s="5"/>
       <c r="T390" s="5"/>
       <c r="U390" s="5"/>
-      <c r="V390" s="1"/>
+      <c r="V390" s="5"/>
       <c r="W390" s="7"/>
     </row>
     <row r="391" spans="2:23">
@@ -9608,7 +10125,7 @@
       <c r="S392" s="5"/>
       <c r="T392" s="5"/>
       <c r="U392" s="5"/>
-      <c r="V392" s="5"/>
+      <c r="V392" s="1"/>
       <c r="W392" s="7"/>
     </row>
     <row r="393" spans="2:23">
@@ -9960,11 +10477,10 @@
       <c r="S408" s="5"/>
       <c r="T408" s="5"/>
       <c r="U408" s="5"/>
-      <c r="V408" s="1"/>
+      <c r="V408" s="5"/>
       <c r="W408" s="7"/>
     </row>
     <row r="409" spans="1:23">
-      <c r="A409" s="8"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -9987,6 +10503,7 @@
       <c r="W409" s="7"/>
     </row>
     <row r="410" spans="1:23">
+      <c r="A410" s="8"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
@@ -10005,7 +10522,7 @@
       <c r="S410" s="5"/>
       <c r="T410" s="5"/>
       <c r="U410" s="5"/>
-      <c r="V410" s="5"/>
+      <c r="V410" s="1"/>
       <c r="W410" s="7"/>
     </row>
     <row r="411" spans="1:23">
@@ -10119,7 +10636,6 @@
       <c r="W415" s="7"/>
     </row>
     <row r="416" spans="1:23">
-      <c r="A416" s="3"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
@@ -10138,11 +10654,11 @@
       <c r="S416" s="5"/>
       <c r="T416" s="5"/>
       <c r="U416" s="5"/>
-      <c r="V416" s="1"/>
+      <c r="V416" s="5"/>
       <c r="W416" s="7"/>
     </row>
     <row r="417" spans="1:23">
-      <c r="A417" s="8"/>
+      <c r="A417" s="3"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
@@ -10165,6 +10681,7 @@
       <c r="W417" s="7"/>
     </row>
     <row r="418" spans="1:23">
+      <c r="A418" s="8"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -10183,7 +10700,7 @@
       <c r="S418" s="5"/>
       <c r="T418" s="5"/>
       <c r="U418" s="5"/>
-      <c r="V418" s="5"/>
+      <c r="V418" s="1"/>
       <c r="W418" s="7"/>
     </row>
     <row r="419" spans="1:23">
@@ -10227,8 +10744,30 @@
       <c r="S420" s="5"/>
       <c r="T420" s="5"/>
       <c r="U420" s="5"/>
-      <c r="V420" s="1"/>
+      <c r="V420" s="5"/>
       <c r="W420" s="7"/>
+    </row>
+    <row r="421" spans="1:23">
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+      <c r="J421" s="5"/>
+      <c r="K421" s="5"/>
+      <c r="L421" s="5"/>
+      <c r="M421" s="6"/>
+      <c r="N421" s="5"/>
+      <c r="O421" s="5"/>
+      <c r="P421" s="5"/>
+      <c r="Q421" s="5"/>
+      <c r="R421" s="5"/>
+      <c r="S421" s="5"/>
+      <c r="T421" s="5"/>
+      <c r="U421" s="5"/>
+      <c r="V421" s="1"/>
+      <c r="W421" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
